--- a/Excel Table/Dialog.xlsx
+++ b/Excel Table/Dialog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="19">
   <si>
     <t>ID</t>
   </si>
@@ -45,6 +45,9 @@
     <t>hello</t>
   </si>
   <si>
+    <t>boss</t>
+  </si>
+  <si>
     <t>Left</t>
   </si>
   <si>
@@ -54,6 +57,9 @@
     <t>how are u</t>
   </si>
   <si>
+    <t>douban_junior</t>
+  </si>
+  <si>
     <t>Right</t>
   </si>
   <si>
@@ -61,6 +67,12 @@
   </si>
   <si>
     <t>i am fine, and u</t>
+  </si>
+  <si>
+    <t>oversea_bf</t>
+  </si>
+  <si>
+    <t>Middle</t>
   </si>
 </sst>
 </file>
@@ -68,10 +80,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -90,6 +102,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -119,40 +138,71 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,13 +217,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -194,37 +237,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -235,43 +247,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -283,139 +421,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,21 +438,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -461,11 +458,50 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,30 +538,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -534,10 +546,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -546,133 +558,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1036,7 +1048,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1081,8 +1093,11 @@
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G2">
         <v>1002</v>
@@ -1093,13 +1108,16 @@
         <v>1002</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G3">
         <v>1003</v>
@@ -1110,13 +1128,16 @@
         <v>1003</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G4">
         <v>1004</v>
@@ -1127,13 +1148,16 @@
         <v>1004</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="E5" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G5">
         <v>1005</v>
@@ -1144,13 +1168,16 @@
         <v>1005</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G6">
         <v>1006</v>
@@ -1161,13 +1188,16 @@
         <v>1006</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G7">
         <v>1007</v>
@@ -1178,13 +1208,16 @@
         <v>1007</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="D8" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="E8" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G8">
         <v>1008</v>
@@ -1195,13 +1228,16 @@
         <v>1008</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G9">
         <v>1009</v>
@@ -1212,13 +1248,16 @@
         <v>1009</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G10">
         <v>1010</v>
@@ -1229,13 +1268,16 @@
         <v>1010</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="D11" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="E11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>

--- a/Excel Table/Dialog.xlsx
+++ b/Excel Table/Dialog.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="13500"/>
+    <workbookView windowHeight="17940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="49">
   <si>
     <t>ID</t>
   </si>
@@ -39,10 +39,7 @@
     <t>next_id</t>
   </si>
   <si>
-    <t>旁白</t>
-  </si>
-  <si>
-    <t>hello</t>
+    <t>业余老板</t>
   </si>
   <si>
     <t>boss</t>
@@ -51,28 +48,121 @@
     <t>Left</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>how are u</t>
-  </si>
-  <si>
-    <t>douban_junior</t>
+    <t>working</t>
+  </si>
+  <si>
+    <t>看你在这个城市无依无靠怪可怜的，告诉你一件好事吧</t>
+  </si>
+  <si>
+    <t>你也知道圈R吧，我们即将去拍一档他做的艺术家选秀综艺，你也来吧</t>
+  </si>
+  <si>
+    <t>野鸡艺术家男友</t>
+  </si>
+  <si>
+    <t>我签约的画廊叫我即刻回国去参加一档艺术家综艺，你也一起来吧</t>
+  </si>
+  <si>
+    <t>oversea_bf</t>
   </si>
   <si>
     <t>Right</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>i am fine, and u</t>
-  </si>
-  <si>
-    <t>oversea_bf</t>
+    <t>study_aboard</t>
+  </si>
+  <si>
+    <t>但是，我们交往的事情要保密噢!</t>
+  </si>
+  <si>
+    <t>爹味徐导师</t>
+  </si>
+  <si>
+    <t>这是我们的特别课程，艺术家职业培训《不要让别人当你爸爸》</t>
+  </si>
+  <si>
+    <t>tuitor_Xu</t>
+  </si>
+  <si>
+    <t>training</t>
+  </si>
+  <si>
+    <t>小姐要不要了解一下?</t>
+  </si>
+  <si>
+    <t>选最贵的9888套餐的话，就有徐震老师的特别爹味指导，还能获得艺术家选秀的报名资格</t>
+  </si>
+  <si>
+    <t>导师有话讲</t>
+  </si>
+  <si>
+    <t>三个月的比赛过去了，你没能赢得比赛，错失了成为众所瞩目的艺术家的机会。临走前，导师有些话想跟你说……</t>
+  </si>
+  <si>
+    <t>end_Xu</t>
   </si>
   <si>
     <t>Middle</t>
+  </si>
+  <si>
+    <t>诶，我们也做师生相处了这么多个月了，跟你说说心里话</t>
+  </si>
+  <si>
+    <t>其实你在艺术上的资质挺平庸的，而且也没有什么社交技巧。虽然你还算富裕，但光有钱是做不了艺术的</t>
+  </si>
+  <si>
+    <t>赶紧想想自己的出路吧，要成为知名而成功的艺术家不是那么容易的</t>
+  </si>
+  <si>
+    <t>多少人刚走入艺术时，怀揣着进入艺术史的野心和梦想，结果被残酷的现实消磨了棱角</t>
+  </si>
+  <si>
+    <t>比起一无所有的他们，反正你还有点钱，不如换个行当做做生意吧，艺术的话，以后有缘再见</t>
+  </si>
+  <si>
+    <t>三个月的比赛落下帷幕，你赢得了比赛第一。第一？第一！你第一次成为了那个众所瞩目的对象！所有的媒体排着队要报道你。临走前，导师有些话想跟你说……</t>
+  </si>
+  <si>
+    <t>受人瞩目的感觉怎么样？当我第一次看到你，我就觉得，这个年轻人终有一天会发光的。我在你身上看到了我自己</t>
+  </si>
+  <si>
+    <t>混迹艺术界中，有时才华并不是最重要的。如今你在节目中赢得了资金也积累了人脉，就意味着你拥有了一定的话语权。来，拿上我这本《老炮话术》</t>
+  </si>
+  <si>
+    <t>记住，笑对一切质疑，永远相信自己的作品是最牛逼的，久而久之，你就会成为别人口中的“大艺术家”</t>
+  </si>
+  <si>
+    <t>嘿嘿嘿，欢迎开启圈钱的大门，艺术的道路上我们不见不散</t>
+  </si>
+  <si>
+    <t>三个月的比赛有痛苦也有收获，你虽然不是第一名，但也挤入了排名前列，收获了一些大众好感。你坚持了自己对艺术的要求，维护了自己的操守。临走前，你的导师有些话想对你说……</t>
+  </si>
+  <si>
+    <t>年轻人，你的纯粹和坚持，一定会帮助你成为一个特别的艺术家</t>
+  </si>
+  <si>
+    <t>或许现在你还没有资金让自己的生活和创作环境好一点。但你要相信一点，你的艺术或许可以影响许多人，甚至改变这个世界。我们加个微信吧，以后有什么困惑都可以和我聊</t>
+  </si>
+  <si>
+    <t>我曾经有机会成为你这样的艺术家，但我不愿与贫乏的日子相伴。祝你好运！年轻人。</t>
+  </si>
+  <si>
+    <t>三个月的比赛结束，你勉强挤进决赛，混了个脸熟。但是通过比赛你收割了一大批粉丝，成为了艺术界流量明星。临走前，你的导师有些话想跟你说……</t>
+  </si>
+  <si>
+    <t>哟，年轻人，这是个流量为王的时代，你紧紧的抓住了时代的脉搏，现在你也是抖音三百万粉的大主播了</t>
+  </si>
+  <si>
+    <t>这或许是个不错的机遇！用你的粉丝影响力，给大众科普艺术。三分知识，七分皮囊，月入百万。</t>
+  </si>
+  <si>
+    <t>下个月我的新展开幕，你跟网红朋友们过来自拍打卡吧，在红小书上帮我推一把</t>
+  </si>
+  <si>
+    <t>标题都帮你想好了，就叫《在XX的展览上，怎么利用镜子和光线自拍》、《魔都最好自拍的展览一定是XX》</t>
+  </si>
+  <si>
+    <t>合作愉快，年轻人，嘿嘿嘿</t>
   </si>
 </sst>
 </file>
@@ -81,8 +171,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -95,7 +185,82 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -108,10 +273,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -123,47 +289,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -186,57 +321,12 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -247,25 +337,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -277,43 +493,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -331,103 +511,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,15 +546,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -476,6 +557,48 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,39 +628,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -546,10 +636,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -558,141 +648,147 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1043,19 +1139,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="19.375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="16.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15" style="1" customWidth="1"/>
+    <col min="3" max="3" width="109.166666666667" style="1" customWidth="1"/>
+    <col min="4" max="5" width="16.6666666666667" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1"/>
   </cols>
@@ -1087,16 +1183,17 @@
       <c r="A2">
         <v>1001</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G2">
@@ -1107,17 +1204,20 @@
       <c r="A3">
         <v>1002</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G3">
         <v>1003</v>
@@ -1127,37 +1227,43 @@
       <c r="A4">
         <v>1003</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G4">
-        <v>1004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
         <v>1004</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>14</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="G5">
         <v>1005</v>
@@ -1167,37 +1273,43 @@
       <c r="A6">
         <v>1005</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>10</v>
+      <c r="E6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="G6">
-        <v>1006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
         <v>1006</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>18</v>
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="G7">
         <v>1007</v>
@@ -1207,17 +1319,20 @@
       <c r="A8">
         <v>1007</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>10</v>
+      <c r="F8" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="G8">
         <v>1008</v>
@@ -1227,20 +1342,23 @@
       <c r="A9">
         <v>1008</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9">
-        <v>1009</v>
+      <c r="B9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1248,18 +1366,18 @@
         <v>1009</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10">
+        <v>28</v>
+      </c>
+      <c r="G10" s="1">
         <v>1010</v>
       </c>
     </row>
@@ -1268,18 +1386,398 @@
         <v>1010</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G11" s="1">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>1011</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>1012</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>1013</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>1014</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>1015</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>1016</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>1017</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>1018</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>1019</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>1020</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>1021</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>1022</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>1023</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>1024</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>1025</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>1026</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>1027</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>1028</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>1029</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G30" s="1">
         <v>0</v>
       </c>
     </row>
